--- a/ConvertedEqual/West Virginia_Converted.xlsx
+++ b/ConvertedEqual/West Virginia_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="284">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -831,6 +831,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1228,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI221"/>
+  <dimension ref="A1:AI233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1698,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>1</v>
       </c>
       <c r="AI7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -3207,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3314,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3421,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3528,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3635,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>0.2615384615384616</v>
+        <v>0.2833333333333334</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3742,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>0.3384615384692307</v>
+        <v>0.366666666675</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3849,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>0.3384615384692307</v>
+        <v>0.366666666675</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3956,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>0.3384615384692307</v>
+        <v>0.366666666675</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -4063,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>0.3384615384692307</v>
+        <v>0.366666666675</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -4170,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0.3384615384692307</v>
+        <v>0.366666666675</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -4277,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>0.5961538461615385</v>
+        <v>0.6458333333416668</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -4384,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>0.8076923077</v>
+        <v>0.791666666675</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -4491,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>0.8076923077</v>
+        <v>0.791666666675</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4598,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>0.8076923077</v>
+        <v>0.791666666675</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -4705,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>0.8076923077</v>
+        <v>0.791666666675</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -4812,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>0.8076923077</v>
+        <v>0.791666666675</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -4919,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="AI38">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -5026,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="AI39">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -5133,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -5240,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AI41">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -5347,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="AI42">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="43" spans="1:35">
@@ -5454,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="AI43">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="44" spans="1:35">
@@ -5561,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="AI44">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -5668,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="AI45">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="46" spans="1:35">
@@ -5775,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="AI46">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -5882,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="AI47">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -5989,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="AI48">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="49" spans="1:35">
@@ -6096,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="AI49">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -6203,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="AI50">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -6310,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="AI51">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="52" spans="1:35">
@@ -6417,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="AI52">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="53" spans="1:35">
@@ -6524,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="AI53">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="54" spans="1:35">
@@ -6631,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="AI54">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="55" spans="1:35">
@@ -6738,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="AI55">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="56" spans="1:35">
@@ -6845,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="AI56">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="57" spans="1:35">
@@ -6952,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="AI57">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="58" spans="1:35">
@@ -7059,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="AI58">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="59" spans="1:35">
@@ -7166,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="AI59">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="60" spans="1:35">
@@ -7273,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="AI60">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="61" spans="1:35">
@@ -7380,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="AI61">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="62" spans="1:35">
@@ -7487,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="AI62">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="63" spans="1:35">
@@ -7594,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="AI63">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="64" spans="1:35">
@@ -7701,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="AI64">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="65" spans="1:35">
@@ -7808,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="AI65">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="66" spans="1:35">
@@ -7915,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="AI66">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="67" spans="1:35">
@@ -8022,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="AI67">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="68" spans="1:35">
@@ -8129,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="AI68">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="69" spans="1:35">
@@ -8236,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="AI69">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="70" spans="1:35">
@@ -8343,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="AI70">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="71" spans="1:35">
@@ -8450,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="AI71">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="72" spans="1:35">
@@ -8557,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="AI72">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="73" spans="1:35">
@@ -8664,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AI73">
-        <v>0.7692307692384616</v>
+        <v>0.7500000000083333</v>
       </c>
     </row>
     <row r="74" spans="1:35">
@@ -8771,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="AI74">
-        <v>0.7307692307692307</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="75" spans="1:35">
@@ -8878,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="AI75">
-        <v>0.7307692307692307</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="76" spans="1:35">
@@ -8985,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="AI76">
-        <v>0.7307692307692307</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="77" spans="1:35">
@@ -9092,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="AI77">
-        <v>0.7307692307692307</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="78" spans="1:35">
@@ -9199,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="AI78">
-        <v>0.7307692307692307</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="79" spans="1:35">
@@ -9306,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="AI79">
-        <v>0.7307692307692307</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="80" spans="1:35">
@@ -9413,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="AI80">
-        <v>0.7307692307692307</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="81" spans="1:35">
@@ -9520,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="AI81">
-        <v>0.7307692307692307</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="82" spans="1:35">
@@ -9627,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="AI82">
-        <v>0.7307692307692307</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="83" spans="1:35">
@@ -9734,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="AI83">
-        <v>0.7307692307692307</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="84" spans="1:35">
@@ -9841,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="AI84">
-        <v>0.7307692307692307</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="85" spans="1:35">
@@ -9948,7 +9984,7 @@
         <v>0</v>
       </c>
       <c r="AI85">
-        <v>0.7307692307692307</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="86" spans="1:35">
@@ -10055,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="AI86">
-        <v>0.7307692307692307</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="87" spans="1:35">
@@ -10162,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="AI87">
-        <v>0.7307692307692307</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="88" spans="1:35">
@@ -10269,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="AI88">
-        <v>0.6384615384615385</v>
+        <v>0.6083333333333334</v>
       </c>
     </row>
     <row r="89" spans="1:35">
@@ -10376,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="AI89">
-        <v>0.6384615384615385</v>
+        <v>0.6083333333333334</v>
       </c>
     </row>
     <row r="90" spans="1:35">
@@ -10483,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="AI90">
-        <v>0.6384615384615385</v>
+        <v>0.6083333333333334</v>
       </c>
     </row>
     <row r="91" spans="1:35">
@@ -10590,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="AI91">
-        <v>0.4717948717923077</v>
+        <v>0.427777777775</v>
       </c>
     </row>
     <row r="92" spans="1:35">
@@ -10697,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="AI92">
-        <v>0.4717948717923077</v>
+        <v>0.427777777775</v>
       </c>
     </row>
     <row r="93" spans="1:35">
@@ -10804,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="AI93">
-        <v>0.4717948717923077</v>
+        <v>0.427777777775</v>
       </c>
     </row>
     <row r="94" spans="1:35">
@@ -10911,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="AI94">
-        <v>0.4717948717923077</v>
+        <v>0.427777777775</v>
       </c>
     </row>
     <row r="95" spans="1:35">
@@ -11018,7 +11054,7 @@
         <v>0</v>
       </c>
       <c r="AI95">
-        <v>0.4717948717923077</v>
+        <v>0.427777777775</v>
       </c>
     </row>
     <row r="96" spans="1:35">
@@ -11125,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="AI96">
-        <v>0.4141025641</v>
+        <v>0.365277777775</v>
       </c>
     </row>
     <row r="97" spans="1:35">
@@ -11232,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="AI97">
-        <v>0.4141025641</v>
+        <v>0.365277777775</v>
       </c>
     </row>
     <row r="98" spans="1:35">
@@ -11339,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="AI98">
-        <v>0.4141025641</v>
+        <v>0.365277777775</v>
       </c>
     </row>
     <row r="99" spans="1:35">
@@ -11446,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="AI99">
-        <v>0.4141025641</v>
+        <v>0.365277777775</v>
       </c>
     </row>
     <row r="100" spans="1:35">
@@ -11553,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="AI100">
-        <v>0.3192307692307693</v>
+        <v>0.2625</v>
       </c>
     </row>
     <row r="101" spans="1:35">
@@ -11660,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="AI101">
-        <v>0.3192307692307693</v>
+        <v>0.2625</v>
       </c>
     </row>
     <row r="102" spans="1:35">
@@ -11767,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="AI102">
-        <v>0.3192307692307693</v>
+        <v>0.2625</v>
       </c>
     </row>
     <row r="103" spans="1:35">
@@ -11874,7 +11910,7 @@
         <v>0</v>
       </c>
       <c r="AI103">
-        <v>0.3192307692307693</v>
+        <v>0.2625</v>
       </c>
     </row>
     <row r="104" spans="1:35">
@@ -11981,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="AI104">
-        <v>0.3192307692307693</v>
+        <v>0.2625</v>
       </c>
     </row>
     <row r="105" spans="1:35">
@@ -12088,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="AI105">
-        <v>0.3192307692307693</v>
+        <v>0.2625</v>
       </c>
     </row>
     <row r="106" spans="1:35">
@@ -12195,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="AI106">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="107" spans="1:35">
@@ -12302,7 +12338,7 @@
         <v>0</v>
       </c>
       <c r="AI107">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="108" spans="1:35">
@@ -12409,7 +12445,7 @@
         <v>0</v>
       </c>
       <c r="AI108">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="109" spans="1:35">
@@ -12516,7 +12552,7 @@
         <v>0</v>
       </c>
       <c r="AI109">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="110" spans="1:35">
@@ -12623,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="AI110">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="111" spans="1:35">
@@ -12730,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="AI111">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="112" spans="1:35">
@@ -12837,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="AI112">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="113" spans="1:35">
@@ -12944,7 +12980,7 @@
         <v>0</v>
       </c>
       <c r="AI113">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="114" spans="1:35">
@@ -13051,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="AI114">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="115" spans="1:35">
@@ -13158,7 +13194,7 @@
         <v>0</v>
       </c>
       <c r="AI115">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="116" spans="1:35">
@@ -13265,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="AI116">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="117" spans="1:35">
@@ -13372,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="AI117">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="118" spans="1:35">
@@ -13479,7 +13515,7 @@
         <v>0</v>
       </c>
       <c r="AI118">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="119" spans="1:35">
@@ -13586,7 +13622,7 @@
         <v>0</v>
       </c>
       <c r="AI119">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="120" spans="1:35">
@@ -13693,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="AI120">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:35">
@@ -13800,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="AI121">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="122" spans="1:35">
@@ -13907,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="AI122">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="123" spans="1:35">
@@ -14014,7 +14050,7 @@
         <v>0</v>
       </c>
       <c r="AI123">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="124" spans="1:35">
@@ -14121,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="AI124">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="125" spans="1:35">
@@ -14228,7 +14264,7 @@
         <v>0</v>
       </c>
       <c r="AI125">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="126" spans="1:35">
@@ -14335,7 +14371,7 @@
         <v>0</v>
       </c>
       <c r="AI126">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="127" spans="1:35">
@@ -14442,7 +14478,7 @@
         <v>0</v>
       </c>
       <c r="AI127">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="128" spans="1:35">
@@ -14549,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="AI128">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="129" spans="1:35">
@@ -14656,7 +14692,7 @@
         <v>0</v>
       </c>
       <c r="AI129">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="130" spans="1:35">
@@ -14763,7 +14799,7 @@
         <v>0</v>
       </c>
       <c r="AI130">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:35">
@@ -14870,7 +14906,7 @@
         <v>0</v>
       </c>
       <c r="AI131">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="132" spans="1:35">
@@ -14977,7 +15013,7 @@
         <v>0</v>
       </c>
       <c r="AI132">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="133" spans="1:35">
@@ -15084,7 +15120,7 @@
         <v>0</v>
       </c>
       <c r="AI133">
-        <v>0.2884615384615384</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="134" spans="1:35">
@@ -15191,7 +15227,7 @@
         <v>0</v>
       </c>
       <c r="AI134">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="135" spans="1:35">
@@ -15298,7 +15334,7 @@
         <v>0</v>
       </c>
       <c r="AI135">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="136" spans="1:35">
@@ -15405,7 +15441,7 @@
         <v>0</v>
       </c>
       <c r="AI136">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="137" spans="1:35">
@@ -15512,7 +15548,7 @@
         <v>1</v>
       </c>
       <c r="AI137">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="138" spans="1:35">
@@ -15619,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="AI138">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="139" spans="1:35">
@@ -15726,7 +15762,7 @@
         <v>1</v>
       </c>
       <c r="AI139">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="140" spans="1:35">
@@ -15833,7 +15869,7 @@
         <v>1</v>
       </c>
       <c r="AI140">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="141" spans="1:35">
@@ -15940,7 +15976,7 @@
         <v>1</v>
       </c>
       <c r="AI141">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="142" spans="1:35">
@@ -16047,7 +16083,7 @@
         <v>1</v>
       </c>
       <c r="AI142">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="143" spans="1:35">
@@ -16154,7 +16190,7 @@
         <v>1</v>
       </c>
       <c r="AI143">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="144" spans="1:35">
@@ -16261,7 +16297,7 @@
         <v>1</v>
       </c>
       <c r="AI144">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="145" spans="1:35">
@@ -16368,7 +16404,7 @@
         <v>1</v>
       </c>
       <c r="AI145">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="146" spans="1:35">
@@ -16475,7 +16511,7 @@
         <v>1</v>
       </c>
       <c r="AI146">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="147" spans="1:35">
@@ -16582,7 +16618,7 @@
         <v>1</v>
       </c>
       <c r="AI147">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="148" spans="1:35">
@@ -16689,7 +16725,7 @@
         <v>1</v>
       </c>
       <c r="AI148">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="149" spans="1:35">
@@ -16796,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="AI149">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="150" spans="1:35">
@@ -16903,7 +16939,7 @@
         <v>1</v>
       </c>
       <c r="AI150">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="151" spans="1:35">
@@ -17010,7 +17046,7 @@
         <v>1</v>
       </c>
       <c r="AI151">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="152" spans="1:35">
@@ -17117,7 +17153,7 @@
         <v>1</v>
       </c>
       <c r="AI152">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="153" spans="1:35">
@@ -17224,7 +17260,7 @@
         <v>1</v>
       </c>
       <c r="AI153">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="154" spans="1:35">
@@ -17331,7 +17367,7 @@
         <v>1</v>
       </c>
       <c r="AI154">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="155" spans="1:35">
@@ -17438,7 +17474,7 @@
         <v>1</v>
       </c>
       <c r="AI155">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="156" spans="1:35">
@@ -17545,7 +17581,7 @@
         <v>1</v>
       </c>
       <c r="AI156">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="157" spans="1:35">
@@ -17652,7 +17688,7 @@
         <v>1</v>
       </c>
       <c r="AI157">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="158" spans="1:35">
@@ -17759,7 +17795,7 @@
         <v>1</v>
       </c>
       <c r="AI158">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="159" spans="1:35">
@@ -17866,7 +17902,7 @@
         <v>1</v>
       </c>
       <c r="AI159">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="160" spans="1:35">
@@ -17973,7 +18009,7 @@
         <v>1</v>
       </c>
       <c r="AI160">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="161" spans="1:35">
@@ -18080,7 +18116,7 @@
         <v>1</v>
       </c>
       <c r="AI161">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="162" spans="1:35">
@@ -18187,7 +18223,7 @@
         <v>1</v>
       </c>
       <c r="AI162">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="163" spans="1:35">
@@ -18294,7 +18330,7 @@
         <v>1</v>
       </c>
       <c r="AI163">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="164" spans="1:35">
@@ -18401,7 +18437,7 @@
         <v>1</v>
       </c>
       <c r="AI164">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="165" spans="1:35">
@@ -18508,7 +18544,7 @@
         <v>1</v>
       </c>
       <c r="AI165">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="166" spans="1:35">
@@ -18615,7 +18651,7 @@
         <v>1</v>
       </c>
       <c r="AI166">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="167" spans="1:35">
@@ -18722,7 +18758,7 @@
         <v>1</v>
       </c>
       <c r="AI167">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="168" spans="1:35">
@@ -18829,7 +18865,7 @@
         <v>1</v>
       </c>
       <c r="AI168">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="169" spans="1:35">
@@ -18936,7 +18972,7 @@
         <v>1</v>
       </c>
       <c r="AI169">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="170" spans="1:35">
@@ -19043,7 +19079,7 @@
         <v>1</v>
       </c>
       <c r="AI170">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="171" spans="1:35">
@@ -19150,7 +19186,7 @@
         <v>1</v>
       </c>
       <c r="AI171">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="172" spans="1:35">
@@ -19257,7 +19293,7 @@
         <v>1</v>
       </c>
       <c r="AI172">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="173" spans="1:35">
@@ -19364,7 +19400,7 @@
         <v>1</v>
       </c>
       <c r="AI173">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="174" spans="1:35">
@@ -19471,7 +19507,7 @@
         <v>1</v>
       </c>
       <c r="AI174">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="175" spans="1:35">
@@ -19578,7 +19614,7 @@
         <v>1</v>
       </c>
       <c r="AI175">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="176" spans="1:35">
@@ -19685,7 +19721,7 @@
         <v>1</v>
       </c>
       <c r="AI176">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="177" spans="1:35">
@@ -19792,7 +19828,7 @@
         <v>1</v>
       </c>
       <c r="AI177">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="178" spans="1:35">
@@ -19899,7 +19935,7 @@
         <v>1</v>
       </c>
       <c r="AI178">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="179" spans="1:35">
@@ -20006,7 +20042,7 @@
         <v>1</v>
       </c>
       <c r="AI179">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="180" spans="1:35">
@@ -20113,7 +20149,7 @@
         <v>1</v>
       </c>
       <c r="AI180">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="181" spans="1:35">
@@ -20220,7 +20256,7 @@
         <v>1</v>
       </c>
       <c r="AI181">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="182" spans="1:35">
@@ -20327,7 +20363,7 @@
         <v>1</v>
       </c>
       <c r="AI182">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="183" spans="1:35">
@@ -20434,7 +20470,7 @@
         <v>1</v>
       </c>
       <c r="AI183">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="184" spans="1:35">
@@ -20541,7 +20577,7 @@
         <v>1</v>
       </c>
       <c r="AI184">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="185" spans="1:35">
@@ -20648,7 +20684,7 @@
         <v>1</v>
       </c>
       <c r="AI185">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="186" spans="1:35">
@@ -20755,7 +20791,7 @@
         <v>1</v>
       </c>
       <c r="AI186">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="187" spans="1:35">
@@ -20862,7 +20898,7 @@
         <v>1</v>
       </c>
       <c r="AI187">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="188" spans="1:35">
@@ -20969,7 +21005,7 @@
         <v>1</v>
       </c>
       <c r="AI188">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="189" spans="1:35">
@@ -21076,7 +21112,7 @@
         <v>1</v>
       </c>
       <c r="AI189">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="190" spans="1:35">
@@ -21183,7 +21219,7 @@
         <v>1</v>
       </c>
       <c r="AI190">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="191" spans="1:35">
@@ -21290,7 +21326,7 @@
         <v>1</v>
       </c>
       <c r="AI191">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="192" spans="1:35">
@@ -21397,7 +21433,7 @@
         <v>1</v>
       </c>
       <c r="AI192">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="193" spans="1:35">
@@ -21504,7 +21540,7 @@
         <v>1</v>
       </c>
       <c r="AI193">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="194" spans="1:35">
@@ -21611,7 +21647,7 @@
         <v>1</v>
       </c>
       <c r="AI194">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="195" spans="1:35">
@@ -21718,7 +21754,7 @@
         <v>1</v>
       </c>
       <c r="AI195">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="196" spans="1:35">
@@ -21825,7 +21861,7 @@
         <v>1</v>
       </c>
       <c r="AI196">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="197" spans="1:35">
@@ -21932,7 +21968,7 @@
         <v>1</v>
       </c>
       <c r="AI197">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="198" spans="1:35">
@@ -22039,7 +22075,7 @@
         <v>1</v>
       </c>
       <c r="AI198">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="199" spans="1:35">
@@ -22146,7 +22182,7 @@
         <v>1</v>
       </c>
       <c r="AI199">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="200" spans="1:35">
@@ -22253,7 +22289,7 @@
         <v>1</v>
       </c>
       <c r="AI200">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="201" spans="1:35">
@@ -22360,7 +22396,7 @@
         <v>1</v>
       </c>
       <c r="AI201">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="202" spans="1:35">
@@ -22467,7 +22503,7 @@
         <v>1</v>
       </c>
       <c r="AI202">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="203" spans="1:35">
@@ -22574,7 +22610,7 @@
         <v>1</v>
       </c>
       <c r="AI203">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="204" spans="1:35">
@@ -22681,7 +22717,7 @@
         <v>1</v>
       </c>
       <c r="AI204">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="205" spans="1:35">
@@ -22788,7 +22824,7 @@
         <v>1</v>
       </c>
       <c r="AI205">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="206" spans="1:35">
@@ -22895,7 +22931,7 @@
         <v>1</v>
       </c>
       <c r="AI206">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="207" spans="1:35">
@@ -23002,7 +23038,7 @@
         <v>1</v>
       </c>
       <c r="AI207">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="208" spans="1:35">
@@ -23109,7 +23145,7 @@
         <v>1</v>
       </c>
       <c r="AI208">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="209" spans="1:35">
@@ -23216,7 +23252,7 @@
         <v>1</v>
       </c>
       <c r="AI209">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="210" spans="1:35">
@@ -23323,7 +23359,7 @@
         <v>1</v>
       </c>
       <c r="AI210">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="211" spans="1:35">
@@ -23430,7 +23466,7 @@
         <v>1</v>
       </c>
       <c r="AI211">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="212" spans="1:35">
@@ -23537,7 +23573,7 @@
         <v>1</v>
       </c>
       <c r="AI212">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="213" spans="1:35">
@@ -23644,7 +23680,7 @@
         <v>1</v>
       </c>
       <c r="AI213">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="214" spans="1:35">
@@ -23751,7 +23787,7 @@
         <v>1</v>
       </c>
       <c r="AI214">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="215" spans="1:35">
@@ -23858,7 +23894,7 @@
         <v>1</v>
       </c>
       <c r="AI215">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="216" spans="1:35">
@@ -23965,7 +24001,7 @@
         <v>1</v>
       </c>
       <c r="AI216">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="217" spans="1:35">
@@ -24072,7 +24108,7 @@
         <v>1</v>
       </c>
       <c r="AI217">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="218" spans="1:35">
@@ -24179,7 +24215,7 @@
         <v>1</v>
       </c>
       <c r="AI218">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="219" spans="1:35">
@@ -24286,7 +24322,7 @@
         <v>1</v>
       </c>
       <c r="AI219">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="220" spans="1:35">
@@ -24393,7 +24429,7 @@
         <v>1</v>
       </c>
       <c r="AI220">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="221" spans="1:35">
@@ -24500,7 +24536,1291 @@
         <v>1</v>
       </c>
       <c r="AI221">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:35">
+      <c r="A222" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>0</v>
+      </c>
+      <c r="AG222">
+        <v>1</v>
+      </c>
+      <c r="AH222">
+        <v>1</v>
+      </c>
+      <c r="AI222">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:35">
+      <c r="A223" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
+      <c r="AF223">
+        <v>0</v>
+      </c>
+      <c r="AG223">
+        <v>1</v>
+      </c>
+      <c r="AH223">
+        <v>1</v>
+      </c>
+      <c r="AI223">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:35">
+      <c r="A224" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
+      <c r="AF224">
+        <v>0</v>
+      </c>
+      <c r="AG224">
+        <v>1</v>
+      </c>
+      <c r="AH224">
+        <v>1</v>
+      </c>
+      <c r="AI224">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:35">
+      <c r="A225" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
+      <c r="AF225">
+        <v>0</v>
+      </c>
+      <c r="AG225">
+        <v>1</v>
+      </c>
+      <c r="AH225">
+        <v>1</v>
+      </c>
+      <c r="AI225">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:35">
+      <c r="A226" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>0</v>
+      </c>
+      <c r="AF226">
+        <v>0</v>
+      </c>
+      <c r="AG226">
+        <v>1</v>
+      </c>
+      <c r="AH226">
+        <v>1</v>
+      </c>
+      <c r="AI226">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:35">
+      <c r="A227" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>0</v>
+      </c>
+      <c r="AF227">
+        <v>0</v>
+      </c>
+      <c r="AG227">
+        <v>1</v>
+      </c>
+      <c r="AH227">
+        <v>1</v>
+      </c>
+      <c r="AI227">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:35">
+      <c r="A228" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>0</v>
+      </c>
+      <c r="AG228">
+        <v>1</v>
+      </c>
+      <c r="AH228">
+        <v>1</v>
+      </c>
+      <c r="AI228">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:35">
+      <c r="A229" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>0</v>
+      </c>
+      <c r="AG229">
+        <v>1</v>
+      </c>
+      <c r="AH229">
+        <v>1</v>
+      </c>
+      <c r="AI229">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:35">
+      <c r="A230" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>1</v>
+      </c>
+      <c r="AH230">
+        <v>1</v>
+      </c>
+      <c r="AI230">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:35">
+      <c r="A231" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>0</v>
+      </c>
+      <c r="AG231">
+        <v>1</v>
+      </c>
+      <c r="AH231">
+        <v>1</v>
+      </c>
+      <c r="AI231">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:35">
+      <c r="A232" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0</v>
+      </c>
+      <c r="AG232">
+        <v>1</v>
+      </c>
+      <c r="AH232">
+        <v>1</v>
+      </c>
+      <c r="AI232">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:35">
+      <c r="A233" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <v>0</v>
+      </c>
+      <c r="AG233">
+        <v>1</v>
+      </c>
+      <c r="AH233">
+        <v>1</v>
+      </c>
+      <c r="AI233">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
